--- a/upload/xls/customer.xlsx
+++ b/upload/xls/customer.xlsx
@@ -8,103 +8,211 @@
   </bookViews>
   <sheets>
     <sheet name="客户单位" sheetId="1" r:id="rId1"/>
-    <sheet name="客户联系人" sheetId="2" r:id="rId2"/>
+    <sheet name="类别" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
-  <si>
-    <t>编号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+  <si>
+    <t>合同编号</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>行业（类别表id）</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>县</t>
+  </si>
+  <si>
+    <t>电话1</t>
+  </si>
+  <si>
+    <t>税号</t>
+  </si>
+  <si>
+    <t>开户银行</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>电子邮件</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>姓名（客户联系人）</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>传真</t>
+  </si>
+  <si>
+    <t>本公司对口人(职员姓名)</t>
+  </si>
+  <si>
+    <t>13AB001</t>
+  </si>
+  <si>
+    <t>示例1</t>
+  </si>
+  <si>
+    <t>南充市丝绸路1号</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>南充</t>
+  </si>
+  <si>
+    <t>顺庆区</t>
+  </si>
+  <si>
+    <t>张捷</t>
+  </si>
+  <si>
+    <t>唐蓉生</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
     <t>行业</t>
   </si>
   <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>邮编</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>市</t>
-  </si>
-  <si>
-    <t>县</t>
-  </si>
-  <si>
-    <t>电话1</t>
-  </si>
-  <si>
-    <t>电话2</t>
-  </si>
-  <si>
-    <t>传真</t>
-  </si>
-  <si>
-    <t>税号</t>
-  </si>
-  <si>
-    <t>开户银行</t>
-  </si>
-  <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>电子邮件</t>
-  </si>
-  <si>
-    <t>网址</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>本公司对口人</t>
-  </si>
-  <si>
-    <t>打发打发撒旦1</t>
-  </si>
-  <si>
-    <t>手动阀手动阀手动阀</t>
-  </si>
-  <si>
-    <t>四川</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>单位名称</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>职务</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>电话</t>
+    <t>技术板块</t>
+  </si>
+  <si>
+    <t>id编号</t>
+  </si>
+  <si>
+    <t>安标</t>
+  </si>
+  <si>
+    <t>城镇燃气</t>
+  </si>
+  <si>
+    <t>委外</t>
+  </si>
+  <si>
+    <t>安标复审</t>
+  </si>
+  <si>
+    <t>道路桥梁</t>
+  </si>
+  <si>
+    <t>职卫</t>
+  </si>
+  <si>
+    <t>安全评估</t>
+  </si>
+  <si>
+    <t>电力</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>地灾</t>
+  </si>
+  <si>
+    <t>非煤矿山</t>
+  </si>
+  <si>
+    <t>咨询</t>
+  </si>
+  <si>
+    <t>环评</t>
+  </si>
+  <si>
+    <t>工贸</t>
+  </si>
+  <si>
+    <t>控评</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>论证</t>
+  </si>
+  <si>
+    <t>机械电子</t>
+  </si>
+  <si>
+    <t>能评</t>
+  </si>
+  <si>
+    <t>加油加气站</t>
+  </si>
+  <si>
+    <t>涉路施工</t>
+  </si>
+  <si>
+    <t>现状</t>
+  </si>
+  <si>
+    <t>石油天然气</t>
+  </si>
+  <si>
+    <t>验收</t>
+  </si>
+  <si>
+    <t>铁路</t>
+  </si>
+  <si>
+    <t>应急预案</t>
+  </si>
+  <si>
+    <t>尾矿</t>
+  </si>
+  <si>
+    <t>预评</t>
+  </si>
+  <si>
+    <t>冶金</t>
+  </si>
+  <si>
+    <t>职检</t>
+  </si>
+  <si>
+    <t>重大危险源</t>
+  </si>
+  <si>
+    <t>专篇</t>
+  </si>
+  <si>
+    <t>专项评价</t>
+  </si>
+  <si>
+    <t>综合分析</t>
   </si>
 </sst>
 </file>
@@ -112,9 +220,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -126,6 +234,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -134,7 +325,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,91 +348,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,23 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,25 +399,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,49 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,103 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +597,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,7 +606,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,16 +650,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -568,16 +676,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -590,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,19 +710,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,118 +731,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1061,20 +1175,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="9" max="9" width="9.375"/>
-    <col min="16" max="16" width="7.875" customWidth="1"/>
-    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="20.125" customWidth="1"/>
+    <col min="18" max="18" width="11.5"/>
+    <col min="21" max="21" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,16 +1205,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1129,58 +1247,76 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>1</v>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:21">
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
       </c>
       <c r="I2">
         <v>12345678</v>
       </c>
       <c r="J2">
-        <v>1234567</v>
+        <v>123123</v>
       </c>
       <c r="K2">
+        <v>123123</v>
+      </c>
+      <c r="L2">
         <v>213123</v>
-      </c>
-      <c r="L2">
-        <v>123123</v>
       </c>
       <c r="M2">
         <v>123123</v>
       </c>
       <c r="N2">
-        <v>213123</v>
-      </c>
-      <c r="O2">
         <v>123123</v>
       </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
       <c r="P2">
-        <v>123123</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>123123</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>123123</v>
+        <v>1582727232</v>
+      </c>
+      <c r="S2">
+        <v>2323</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1192,57 +1328,351 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="17.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
+      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="1">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="1">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="1">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="1">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" s="1">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:3">
+      <c r="A16" s="1">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:3">
+      <c r="A17" s="1">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:3">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:3">
+      <c r="A19" s="1">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:3">
+      <c r="A20" s="1">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:3">
+      <c r="A21" s="1">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>